--- a/data/trans_camb/P38A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.191300424246855</v>
+        <v>-5.531134291352565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.5931398072002</v>
+        <v>-16.05267548016839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.859037564729759</v>
+        <v>-3.017207102419452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.366819804888985</v>
+        <v>-10.29424976019153</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.119433994426033</v>
+        <v>-2.477450591562448</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.06656155685777</v>
+        <v>-10.02243674300791</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.880562464092101</v>
+        <v>9.018916436861565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.609958995787592</v>
+        <v>2.799183729195112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.886309126727289</v>
+        <v>9.991382510167544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.33027362629097</v>
+        <v>7.358202313032534</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.982679265307209</v>
+        <v>7.473241966217173</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.729200537041564</v>
+        <v>2.432761866421139</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08705754071890244</v>
+        <v>-0.09775309722262644</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2755933682768147</v>
+        <v>-0.2812139825842764</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05662756912633252</v>
+        <v>-0.04426019086888868</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1379420533826639</v>
+        <v>-0.1542624411920833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03498845731032876</v>
+        <v>-0.03957429265584373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1635758781401584</v>
+        <v>-0.1641279382663914</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1694575288023529</v>
+        <v>0.1748295283268753</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05025786468533401</v>
+        <v>0.05449000361324419</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1440633716602148</v>
+        <v>0.1648710521507061</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1167935486557054</v>
+        <v>0.1205956240917654</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1208106851281245</v>
+        <v>0.1310713733810573</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04724213471044703</v>
+        <v>0.04155681740196601</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-6.121442345105709</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-9.992956393165976</v>
+        <v>-9.992956393165963</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.4431940174876137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-8.822910478661871</v>
+        <v>-8.822910478661861</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-3.241978966426695</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.63469110756613</v>
+        <v>-10.59427099673296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.27148635460501</v>
+        <v>-16.59520521747986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.484298193829681</v>
+        <v>-4.003319824162222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.55532442414835</v>
+        <v>-13.57149775225936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.28067829439098</v>
+        <v>-6.39653755260843</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.16813605888762</v>
+        <v>-12.77684241248789</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.397880920788369</v>
+        <v>-1.464509470691447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.067682381438809</v>
+        <v>-4.168139655741973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.358477054405621</v>
+        <v>3.354291861185025</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.213088666581872</v>
+        <v>-3.921238600936066</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1047046903037166</v>
+        <v>-0.4447548850008491</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.5015399706789</v>
+        <v>-5.108373130286016</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.07515402610032788</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1226852861224596</v>
+        <v>-0.1226852861224594</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.005072454389629618</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1009801784791654</v>
+        <v>-0.1009801784791652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.03848434677229338</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1277903026609269</v>
+        <v>-0.1279028156626194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1951993970953159</v>
+        <v>-0.2001644198620247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05013567881707928</v>
+        <v>-0.0448434056774328</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1530485689708722</v>
+        <v>-0.1533793630797529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07337266186453038</v>
+        <v>-0.07461514950572438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1538368546585803</v>
+        <v>-0.1508144048509212</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.01722501567662339</v>
+        <v>-0.01834172238738317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.05105806473579258</v>
+        <v>-0.05167854909181058</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03899139637396761</v>
+        <v>0.03881006144308943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04965064076280282</v>
+        <v>-0.04621223457221023</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.001070189151677651</v>
+        <v>-0.005350100797670564</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06588043579879356</v>
+        <v>-0.06175205795986347</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-4.680802479997038</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.754987889858755</v>
+        <v>-6.754987889858777</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-4.478814417612265</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.628369166591126</v>
+        <v>-7.960429117752795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.31154448416474</v>
+        <v>-11.62681455300753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.546896267504426</v>
+        <v>-7.711978608243925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.640646960896284</v>
+        <v>-9.91466840333155</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.092574273926886</v>
+        <v>-7.17540922494892</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.535407103175663</v>
+        <v>-9.564476293429296</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1070176097522866</v>
+        <v>0.2296604283267485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.383677645193986</v>
+        <v>-2.401824605112356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.564158618485313</v>
+        <v>-1.507184646112734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.735962429550644</v>
+        <v>-3.966274151873614</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.863643353769244</v>
+        <v>-1.62081675965351</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.225965147028901</v>
+        <v>-4.277290862686957</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.04995630862752641</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.07209324923302488</v>
+        <v>-0.07209324923302511</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.04971325481058934</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0979994738400739</v>
+        <v>-0.09070121525228719</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1273331429242061</v>
+        <v>-0.1309285153533193</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08027225097098541</v>
+        <v>-0.08177025392810765</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1017554300248186</v>
+        <v>-0.1045510347894838</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07822295235334616</v>
+        <v>-0.0785215307538823</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1045778384304514</v>
+        <v>-0.1047156203037512</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.0007749857755547567</v>
+        <v>0.001960920881356635</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.02829219354851231</v>
+        <v>-0.028013664660663</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01708741498735404</v>
+        <v>-0.01648843917826244</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.04005149883960904</v>
+        <v>-0.04277742287705901</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.02104252920343617</v>
+        <v>-0.01823069860687726</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04726040328970826</v>
+        <v>-0.04768034196062774</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-1.372693513009093</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.869878614767583</v>
+        <v>-0.8698786147675719</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.433447673602234</v>
+        <v>-7.253579995522996</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.31625303075166</v>
+        <v>-6.190633869796732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.832029888260541</v>
+        <v>-1.662487933789559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.423150418417687</v>
+        <v>-1.1683178817044</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.740674858619453</v>
+        <v>-3.437217078054647</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.040157983562631</v>
+        <v>-2.756656517284282</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.8083208724281323</v>
+        <v>-0.5783330458723756</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05253073037914133</v>
+        <v>-0.00308349147122679</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.618224217884294</v>
+        <v>4.637590797168636</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.12819086484728</v>
+        <v>4.379271224985033</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9174296609047944</v>
+        <v>1.238780690200755</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.383654454500576</v>
+        <v>1.201635260018078</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.01490255232746743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.009443777108483294</v>
+        <v>-0.009443777108483173</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07932852628882117</v>
+        <v>-0.07757122469685469</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06780686578126861</v>
+        <v>-0.06630650089290932</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01954890263389132</v>
+        <v>-0.01798396910930247</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01536888915854144</v>
+        <v>-0.01244093077447559</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04023922425965392</v>
+        <v>-0.03689045764853632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03266272221727288</v>
+        <v>-0.02968971228650826</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.008798936300668116</v>
+        <v>-0.006621614037323417</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.0002163550031525151</v>
+        <v>-0.0002134207517055757</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05164668908576933</v>
+        <v>0.05203212007447224</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04651529155116089</v>
+        <v>0.04994960919497753</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.009864584905853319</v>
+        <v>0.01347250221988031</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.015042877069078</v>
+        <v>0.01314553428358856</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-1.038737886098784</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.467655349181662</v>
+        <v>-1.46765534918164</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.824084006461331</v>
+        <v>-4.866499113008123</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.897367600905032</v>
+        <v>-6.169285716502803</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.537231885763401</v>
+        <v>-3.429317537831142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.246051289174935</v>
+        <v>-2.335220717543577</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.334578340852359</v>
+        <v>-3.347060045762112</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.412897148695791</v>
+        <v>-3.454404193548642</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.699934690406104</v>
+        <v>1.867836546030494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2290182025603731</v>
+        <v>0.4425271267129461</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.296002504880799</v>
+        <v>2.433474963356832</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.657188738417705</v>
+        <v>2.499478540725097</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.32571506479972</v>
+        <v>1.165929095500411</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5591573933265251</v>
+        <v>0.4116945234712211</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.01091578530191179</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01542315044369705</v>
+        <v>-0.01542315044369682</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05041403697504633</v>
+        <v>-0.05073718849594694</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06134384469770888</v>
+        <v>-0.06407224779324999</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0366388229322119</v>
+        <v>-0.03567613693072636</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02324844830965935</v>
+        <v>-0.02416053846502536</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0348167238730805</v>
+        <v>-0.03474799568335398</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03575892818870829</v>
+        <v>-0.03588152755504688</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01786303490524182</v>
+        <v>0.02002979227089001</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.002242730961254129</v>
+        <v>0.004631495582553945</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02464082556776525</v>
+        <v>0.02581378248871245</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02848604005311323</v>
+        <v>0.02664302218422006</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01392797065734995</v>
+        <v>0.01207933674730232</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005913576601084367</v>
+        <v>0.004270295097085259</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>2.371243022245673</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1.857806208234547</v>
+        <v>1.857806208234536</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>1.23629016794683</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.421045883109476</v>
+        <v>-2.416747526712002</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.353523425369683</v>
+        <v>-3.305825176870123</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.1105593162578433</v>
+        <v>0.1567818775940823</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2221127426748732</v>
+        <v>-0.2706013342230363</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.3609945802996485</v>
+        <v>-0.3958511263341656</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.016592085342923</v>
+        <v>-1.082028066483454</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.422096180154932</v>
+        <v>2.51258779519979</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.230987138012108</v>
+        <v>1.260356224632</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.170579879705025</v>
+        <v>5.139043881121698</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.68505792411862</v>
+        <v>4.706047042722346</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.157157326624382</v>
+        <v>2.918616248422892</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.287650833069085</v>
+        <v>2.494313160129795</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>0.02469989048585031</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.019351711088587</v>
+        <v>0.01935171108858688</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0127757274025853</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.02466199564650638</v>
+        <v>-0.02425180663412283</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.03403509836779272</v>
+        <v>-0.03347900492257226</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.001272809729933144</v>
+        <v>0.001744928417381415</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.001722893477473656</v>
+        <v>-0.002722698874928471</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.003814718994093529</v>
+        <v>-0.004084399584868418</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.01037122828068787</v>
+        <v>-0.01107185325289039</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02513940250011738</v>
+        <v>0.02597796220849958</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.01279290798747633</v>
+        <v>0.01327585739737708</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.05503892401679543</v>
+        <v>0.05517780160117446</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05002355158456805</v>
+        <v>0.05056369458244833</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.03320540696296562</v>
+        <v>0.03039031648377415</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0239845440488365</v>
+        <v>0.02611616231414063</v>
       </c>
     </row>
     <row r="40">
@@ -1578,13 +1578,13 @@
         <v>-0.3307028621735153</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>-2.684634188102619</v>
+        <v>-2.68463418810263</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.09575414208036204</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.1655508599969</v>
+        <v>-1.165550859996911</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.671578411002959</v>
+        <v>-1.730855365775038</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.171159676613601</v>
+        <v>-1.113118314026619</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.479752120610535</v>
+        <v>-2.51850465766462</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.64822311078131</v>
+        <v>-4.686000000478502</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.541243672058648</v>
+        <v>-1.472622660424153</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.74173810980787</v>
+        <v>-2.520977133798298</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.565015126517619</v>
+        <v>3.771188350273056</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.963408174667201</v>
+        <v>3.775578721760951</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.413824843030125</v>
+        <v>1.35548486867282</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.9500583480416023</v>
+        <v>-0.8868093537045374</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.650535450758839</v>
+        <v>1.462524792613314</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.2586738383055849</v>
+        <v>0.5602904797143643</v>
       </c>
     </row>
     <row r="43">
@@ -1656,13 +1656,13 @@
         <v>-0.003346019408961787</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>-0.02716286771851573</v>
+        <v>-0.02716286771851584</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0009748017623858386</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.01186560714545135</v>
+        <v>-0.01186560714545147</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01692601160252382</v>
+        <v>-0.0175856132634592</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0118109397073542</v>
+        <v>-0.0112355159568106</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02507852155393401</v>
+        <v>-0.02550451825604051</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04678272599120495</v>
+        <v>-0.04699356734137341</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01558448040724184</v>
+        <v>-0.01491098280549768</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02767298795056349</v>
+        <v>-0.02546687966884196</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03751617401701512</v>
+        <v>0.03979124692506787</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.04190531204308353</v>
+        <v>0.03991679167912635</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.01446687661568128</v>
+        <v>0.01391635846706642</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.009727118481677278</v>
+        <v>-0.009007323879003716</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01699786704530289</v>
+        <v>0.01502746268168578</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.002863699223363537</v>
+        <v>0.005770738194780651</v>
       </c>
     </row>
     <row r="46">
@@ -1732,19 +1732,19 @@
         <v>-1.728485969611038</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-2.631605768790901</v>
+        <v>-2.63160576879089</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.1647614802413044</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-1.191485305742879</v>
+        <v>-1.191485305742856</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-0.7515229401655943</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-1.875251602659811</v>
+        <v>-1.8752516026598</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.476233451497559</v>
+        <v>-3.598666025402908</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.800609319300275</v>
+        <v>-4.861899595735705</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.327391494378601</v>
+        <v>-1.265052420791446</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.687137062566666</v>
+        <v>-2.805237923148503</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.845296155024996</v>
+        <v>-1.774558799129116</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.179617776537832</v>
+        <v>-3.125646827606078</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.209865011778183</v>
+        <v>0.0172231810751182</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.5055448620385021</v>
+        <v>-0.7031643389637844</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.587282950740529</v>
+        <v>1.503563196837161</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.3228252467707959</v>
+        <v>0.244983979138477</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.529417347020363</v>
+        <v>0.4261597288010363</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.6967779763660407</v>
+        <v>-0.5603892691007653</v>
       </c>
     </row>
     <row r="49">
@@ -1810,19 +1810,19 @@
         <v>-0.02026233120619915</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.03084923373915772</v>
+        <v>-0.03084923373915759</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.001837511560765767</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.01328810605839784</v>
+        <v>-0.01328810605839759</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.00858590756516784</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.02142414563994849</v>
+        <v>-0.02142414563994836</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.04029095511255516</v>
+        <v>-0.04153631734593195</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.05591360364324922</v>
+        <v>-0.05620933363282254</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.01464263881656591</v>
+        <v>-0.01404128478996918</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02977484714495229</v>
+        <v>-0.03095302336744859</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.02101136798530574</v>
+        <v>-0.02010559162158948</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03618797832801881</v>
+        <v>-0.03548499599756278</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.002519994439683888</v>
+        <v>0.0002032444944721628</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.006169000662452444</v>
+        <v>-0.008246237115335455</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01786641549451254</v>
+        <v>0.01687051680488248</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.003601631550741924</v>
+        <v>0.002924449978395079</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.006105569272652141</v>
+        <v>0.004964608361495196</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.00810149770423052</v>
+        <v>-0.006482125100722515</v>
       </c>
     </row>
     <row r="52">
